--- a/municipal/დასაქმება და ხელფასები/დაქირავებულები/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ცაგერი.xlsx
+++ b/municipal/დასაქმება და ხელფასები/დაქირავებულები/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ცაგერი.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55970207-E0AE-492A-8A03-C790E8D147A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ცაგერი" sheetId="1" r:id="rId1"/>
@@ -14,23 +15,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ერთეული</t>
   </si>
   <si>
-    <t>დაქირავებულთა რაოდენობა, სულ</t>
+    <t>ბიზნეს სექტორის დაქირავებულთა რაოდენობა ცაგერის მუნიციპალიტეტში</t>
   </si>
   <si>
-    <t>ბიზნეს სექტორის დაქირავებულთა რაოდენობა ცაგერის მუნიციპალიტეტში</t>
+    <t>დაქირავებულთა რაოდენობა</t>
+  </si>
+  <si>
+    <t>მათ შორის:   ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            კაცი</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -80,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -99,11 +106,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -114,23 +139,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,6 +262,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,18 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="27.5703125" style="1" customWidth="1"/>
     <col min="258" max="265" width="13" style="1" customWidth="1"/>
     <col min="266" max="512" width="9.140625" style="1"/>
@@ -638,84 +707,151 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>2014</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>2015</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>2016</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>2017</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>2018</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>2019</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>2020</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>2021</v>
       </c>
+      <c r="J3" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
+    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>310</v>
+        <v>310.41012185300002</v>
       </c>
       <c r="C4" s="9">
-        <v>382</v>
+        <v>381.74481611599998</v>
       </c>
       <c r="D4" s="9">
-        <v>311</v>
+        <v>311.24207681199999</v>
       </c>
       <c r="E4" s="9">
-        <v>191</v>
+        <v>191.323188104</v>
       </c>
       <c r="F4" s="9">
-        <v>272</v>
+        <v>272.14589327900001</v>
       </c>
       <c r="G4" s="9">
-        <v>242</v>
+        <v>241.88286626499999</v>
       </c>
       <c r="H4" s="9">
-        <v>251</v>
+        <v>250.99999999900001</v>
       </c>
       <c r="I4" s="9">
-        <v>160</v>
+        <v>160.300560287</v>
+      </c>
+      <c r="J4" s="9">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44.186913781999998</v>
+      </c>
+      <c r="C5" s="12">
+        <v>24.729052801000002</v>
+      </c>
+      <c r="D5" s="12">
+        <v>87.992994354000004</v>
+      </c>
+      <c r="E5" s="12">
+        <v>41.627914156999999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>58.704461053999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>42.840588896</v>
+      </c>
+      <c r="H5" s="12">
+        <v>85</v>
+      </c>
+      <c r="I5" s="12">
+        <v>23.546655538</v>
+      </c>
+      <c r="J5" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>266.22320807099999</v>
+      </c>
+      <c r="C6" s="13">
+        <v>357.01576331500002</v>
+      </c>
+      <c r="D6" s="13">
+        <v>223.249082458</v>
+      </c>
+      <c r="E6" s="13">
+        <v>149.695273947</v>
+      </c>
+      <c r="F6" s="13">
+        <v>213.441432225</v>
+      </c>
+      <c r="G6" s="13">
+        <v>199.042277369</v>
+      </c>
+      <c r="H6" s="13">
+        <v>165.99999999900001</v>
+      </c>
+      <c r="I6" s="13">
+        <v>136.75390474899999</v>
+      </c>
+      <c r="J6" s="13">
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
